--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-15T00:00:00+02:00</t>
+    <t>2025-07-10T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,6 +108,18 @@
     <t>Rhinopharynx</t>
   </si>
   <si>
+    <t>T000653</t>
+  </si>
+  <si>
+    <t>Waldeyers svælgring inkl. tonsiller</t>
+  </si>
+  <si>
+    <t>T001184</t>
+  </si>
+  <si>
+    <t>Halsregion inkl. periclavilulære glandler</t>
+  </si>
+  <si>
     <t>T000654</t>
   </si>
   <si>
@@ -144,6 +156,18 @@
     <t>Axiller</t>
   </si>
   <si>
+    <t>T000165</t>
+  </si>
+  <si>
+    <t>Mediastinum og lunge hili</t>
+  </si>
+  <si>
+    <t>T000166</t>
+  </si>
+  <si>
+    <t>Intraabdominale glandler</t>
+  </si>
+  <si>
     <t>T001210</t>
   </si>
   <si>
@@ -168,6 +192,12 @@
     <t>Milt</t>
   </si>
   <si>
+    <t>T000177</t>
+  </si>
+  <si>
+    <t>Femoral regionen/Lyske</t>
+  </si>
+  <si>
     <t>T000702</t>
   </si>
   <si>
@@ -178,12 +208,6 @@
   </si>
   <si>
     <t>Pelvis</t>
-  </si>
-  <si>
-    <t>T000177</t>
-  </si>
-  <si>
-    <t>Ingvinale</t>
   </si>
   <si>
     <t>System URI</t>
@@ -456,7 +480,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -588,18 +612,50 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T00:00:00+02:00</t>
+    <t>2023-03-15T00:00:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,18 +108,6 @@
     <t>Rhinopharynx</t>
   </si>
   <si>
-    <t>T000653</t>
-  </si>
-  <si>
-    <t>Waldeyers svælgring inkl. tonsiller</t>
-  </si>
-  <si>
-    <t>T001184</t>
-  </si>
-  <si>
-    <t>Halsregion inkl. periclavilulære glandler</t>
-  </si>
-  <si>
     <t>T000654</t>
   </si>
   <si>
@@ -156,18 +144,6 @@
     <t>Axiller</t>
   </si>
   <si>
-    <t>T000165</t>
-  </si>
-  <si>
-    <t>Mediastinum og lunge hili</t>
-  </si>
-  <si>
-    <t>T000166</t>
-  </si>
-  <si>
-    <t>Intraabdominale glandler</t>
-  </si>
-  <si>
     <t>T001210</t>
   </si>
   <si>
@@ -192,22 +168,22 @@
     <t>Milt</t>
   </si>
   <si>
+    <t>T000702</t>
+  </si>
+  <si>
+    <t>Tarmkrøs</t>
+  </si>
+  <si>
+    <t>T001231</t>
+  </si>
+  <si>
+    <t>Pelvis</t>
+  </si>
+  <si>
     <t>T000177</t>
   </si>
   <si>
-    <t>Femoral regionen/Lyske</t>
-  </si>
-  <si>
-    <t>T000702</t>
-  </si>
-  <si>
-    <t>Tarmkrøs</t>
-  </si>
-  <si>
-    <t>T001231</t>
-  </si>
-  <si>
-    <t>Pelvis</t>
+    <t>Ingvinale</t>
   </si>
   <si>
     <t>System URI</t>
@@ -480,7 +456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -612,50 +588,18 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-LocationNodal.xlsx
+++ b/fhir/ValueSet-LocationNodal.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
